--- a/figures/Fig1/c3_GO_KEGG.xlsx
+++ b/figures/Fig1/c3_GO_KEGG.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
-    <sheet name="c3" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="817">
   <si>
     <t>ID</t>
   </si>
@@ -9419,6919 +9418,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.809131450706431E-8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.1187596942397168E-5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.994586849668672E-6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>685</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.05122860435883E-7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.2075301637678573E-5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.5787851295937188E-5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>686</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.0571947848473164E-6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.70879125585364E-5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.00168049579613E-5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>687</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.6915701977014876E-5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.545735377702223E-4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.870587083606429E-4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>688</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D6" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.6030194782955793E-4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.004071669474870771</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.003273534513572025</v>
-      </c>
-      <c r="H6" t="s">
-        <v>689</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.958208151887368E-4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006261540588161596</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.005034143697071486</v>
-      </c>
-      <c r="H7" t="s">
-        <v>690</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0020117860799282856</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.03608856679418358</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.029014429996152568</v>
-      </c>
-      <c r="H8" t="s">
-        <v>691</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" t="s">
-        <v>505</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0022732955460903043</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.03608856679418358</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.029014429996152568</v>
-      </c>
-      <c r="H9" t="s">
-        <v>692</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0027225467428341273</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.03841815959332602</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.030887372404083083</v>
-      </c>
-      <c r="H10" t="s">
-        <v>693</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.004960095786326357</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.06299321648634473</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.05064518855512175</v>
-      </c>
-      <c r="H11" t="s">
-        <v>694</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D12" t="s">
-        <v>508</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.005893433020960485</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.06804236306018015</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.05470459359169063</v>
-      </c>
-      <c r="H12" t="s">
-        <v>695</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" t="s">
-        <v>488</v>
-      </c>
-      <c r="D13" t="s">
-        <v>509</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.006941353902888557</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0734626621389039</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.059062397243876325</v>
-      </c>
-      <c r="H13" t="s">
-        <v>696</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" t="s">
-        <v>510</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.00766982145168126</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.07492825572027079</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.06024070289984471</v>
-      </c>
-      <c r="H14" t="s">
-        <v>697</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" t="s">
-        <v>485</v>
-      </c>
-      <c r="D15" t="s">
-        <v>511</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.009633870981224285</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.077847328798871</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.06258757474919592</v>
-      </c>
-      <c r="H15" t="s">
-        <v>698</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D16" t="s">
-        <v>511</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.009633870981224285</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.077847328798871</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.06258757474919592</v>
-      </c>
-      <c r="H16" t="s">
-        <v>699</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" t="s">
-        <v>486</v>
-      </c>
-      <c r="D17" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.009807537486471937</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.077847328798871</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.06258757474919592</v>
-      </c>
-      <c r="H17" t="s">
-        <v>700</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D18" t="s">
-        <v>513</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.013511911277452817</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.10094192542567693</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.08115513275002621</v>
-      </c>
-      <c r="H18" t="s">
-        <v>701</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D19" t="s">
-        <v>514</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.02168589855409209</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.15300606202053862</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.12301357659338787</v>
-      </c>
-      <c r="H19" t="s">
-        <v>702</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" t="s">
-        <v>515</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0234735351207029</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H20" t="s">
-        <v>703</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" t="s">
-        <v>488</v>
-      </c>
-      <c r="D21" t="s">
-        <v>516</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.027497928282060238</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H21" t="s">
-        <v>704</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D22" t="s">
-        <v>516</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.027497928282060238</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H22" t="s">
-        <v>705</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" t="s">
-        <v>488</v>
-      </c>
-      <c r="D23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.027497928282060238</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H23" t="s">
-        <v>706</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.028969900878252967</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H24" t="s">
-        <v>707</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D25" t="s">
-        <v>518</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.029307032642560203</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.15508304773354775</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.12468342834773419</v>
-      </c>
-      <c r="H25" t="s">
-        <v>708</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" t="s">
-        <v>488</v>
-      </c>
-      <c r="D26" t="s">
-        <v>506</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03200666873438677</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1601412674450678</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.12875012799147595</v>
-      </c>
-      <c r="H26" t="s">
-        <v>709</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D27" t="s">
-        <v>519</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.03278482640607687</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.1601412674450678</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.12875012799147595</v>
-      </c>
-      <c r="H27" t="s">
-        <v>707</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" t="s">
-        <v>488</v>
-      </c>
-      <c r="D28" t="s">
-        <v>520</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0367862687768518</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.17303170869111772</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1391137649650926</v>
-      </c>
-      <c r="H28" t="s">
-        <v>707</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" t="s">
-        <v>488</v>
-      </c>
-      <c r="D29" t="s">
-        <v>521</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04355730339891961</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1975634832736711</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.15883678307124818</v>
-      </c>
-      <c r="H29" t="s">
-        <v>701</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>274</v>
-      </c>
-      <c r="C30" t="s">
-        <v>487</v>
-      </c>
-      <c r="D30" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.045638770656122644</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.19986634045957158</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.160688230622283</v>
-      </c>
-      <c r="H30" t="s">
-        <v>710</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" t="s">
-        <v>487</v>
-      </c>
-      <c r="D31" t="s">
-        <v>523</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.04881349107188627</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.2066437788709852</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1661371450516831</v>
-      </c>
-      <c r="H31" t="s">
-        <v>703</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" t="s">
-        <v>487</v>
-      </c>
-      <c r="D32" t="s">
-        <v>511</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.05154095536505084</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.21115165585036957</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.16976138099863944</v>
-      </c>
-      <c r="H32" t="s">
-        <v>711</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>277</v>
-      </c>
-      <c r="C33" t="s">
-        <v>487</v>
-      </c>
-      <c r="D33" t="s">
-        <v>524</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.056057782633251944</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.21711930290284687</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.17455924062640818</v>
-      </c>
-      <c r="H33" t="s">
-        <v>712</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" t="s">
-        <v>488</v>
-      </c>
-      <c r="D34" t="s">
-        <v>525</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.056416826738535014</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.21711930290284687</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.17455924062640818</v>
-      </c>
-      <c r="H34" t="s">
-        <v>707</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" t="s">
-        <v>489</v>
-      </c>
-      <c r="D35" t="s">
-        <v>526</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.06116204952428794</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.22845824381131086</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1836755047633415</v>
-      </c>
-      <c r="H35" t="s">
-        <v>713</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" t="s">
-        <v>488</v>
-      </c>
-      <c r="D36" t="s">
-        <v>527</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.06836370463637435</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.24117195802276506</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.19389705700959978</v>
-      </c>
-      <c r="H36" t="s">
-        <v>714</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" t="s">
-        <v>488</v>
-      </c>
-      <c r="D37" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.06836370463637435</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.24117195802276506</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.19389705700959978</v>
-      </c>
-      <c r="H37" t="s">
-        <v>715</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" t="s">
-        <v>488</v>
-      </c>
-      <c r="D38" t="s">
-        <v>528</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.07043085935704467</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.24174916590120737</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.1943611197050735</v>
-      </c>
-      <c r="H38" t="s">
-        <v>701</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" t="s">
-        <v>488</v>
-      </c>
-      <c r="D39" t="s">
-        <v>529</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.08325320948401035</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.2782409895912978</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.2236997595553741</v>
-      </c>
-      <c r="H39" t="s">
-        <v>701</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" t="s">
-        <v>488</v>
-      </c>
-      <c r="D40" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.08991669988735293</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.2890408628708446</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.23238262493553186</v>
-      </c>
-      <c r="H40" t="s">
-        <v>707</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" t="s">
-        <v>488</v>
-      </c>
-      <c r="D41" t="s">
-        <v>531</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.09444565993418733</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.2890408628708446</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.23238262493553186</v>
-      </c>
-      <c r="H41" t="s">
-        <v>716</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" t="s">
-        <v>489</v>
-      </c>
-      <c r="D42" t="s">
-        <v>532</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.09542411287569674</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.2890408628708446</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.23238262493553186</v>
-      </c>
-      <c r="H42" t="s">
-        <v>717</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" t="s">
-        <v>488</v>
-      </c>
-      <c r="D43" t="s">
-        <v>533</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.09558831685492497</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.2890408628708446</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.23238262493553186</v>
-      </c>
-      <c r="H43" t="s">
-        <v>707</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>288</v>
-      </c>
-      <c r="C44" t="s">
-        <v>488</v>
-      </c>
-      <c r="D44" t="s">
-        <v>534</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.10019929184603894</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.28935787602721336</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.23263749668163858</v>
-      </c>
-      <c r="H44" t="s">
-        <v>707</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" t="s">
-        <v>489</v>
-      </c>
-      <c r="D45" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1021291357370615</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.28935787602721336</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.23263749668163858</v>
-      </c>
-      <c r="H45" t="s">
-        <v>718</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>290</v>
-      </c>
-      <c r="C46" t="s">
-        <v>488</v>
-      </c>
-      <c r="D46" t="s">
-        <v>536</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.10252838126948505</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.28935787602721336</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.23263749668163858</v>
-      </c>
-      <c r="H46" t="s">
-        <v>719</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>291</v>
-      </c>
-      <c r="C47" t="s">
-        <v>488</v>
-      </c>
-      <c r="D47" t="s">
-        <v>537</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.11439632162546948</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.3158333227485787</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.25392318530138536</v>
-      </c>
-      <c r="H47" t="s">
-        <v>720</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>292</v>
-      </c>
-      <c r="C48" t="s">
-        <v>488</v>
-      </c>
-      <c r="D48" t="s">
-        <v>514</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.1204606377972097</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.3255000212818219</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.2616950026053604</v>
-      </c>
-      <c r="H48" t="s">
-        <v>721</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>293</v>
-      </c>
-      <c r="C49" t="s">
-        <v>488</v>
-      </c>
-      <c r="D49" t="s">
-        <v>538</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.13407799646102128</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.35402335240987787</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.28462714615630463</v>
-      </c>
-      <c r="H49" t="s">
-        <v>707</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>294</v>
-      </c>
-      <c r="C50" t="s">
-        <v>488</v>
-      </c>
-      <c r="D50" t="s">
-        <v>539</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.13659168715026784</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.35402335240987787</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.28462714615630463</v>
-      </c>
-      <c r="H50" t="s">
-        <v>722</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" t="s">
-        <v>489</v>
-      </c>
-      <c r="D51" t="s">
-        <v>540</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.14135612378741436</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.35904455442003247</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.28866408436587776</v>
-      </c>
-      <c r="H51" t="s">
-        <v>723</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" t="s">
-        <v>489</v>
-      </c>
-      <c r="D52" t="s">
-        <v>541</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.15089946905746388</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.3757692660842728</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.3021103921274303</v>
-      </c>
-      <c r="H52" t="s">
-        <v>724</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" t="s">
-        <v>489</v>
-      </c>
-      <c r="D53" t="s">
-        <v>542</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.17584701692430615</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.42947252210359393</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.3452866526651356</v>
-      </c>
-      <c r="H53" t="s">
-        <v>717</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C54" t="s">
-        <v>488</v>
-      </c>
-      <c r="D54" t="s">
-        <v>543</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.1901368745459056</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.4556110012703776</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.3663014266326285</v>
-      </c>
-      <c r="H54" t="s">
-        <v>707</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>299</v>
-      </c>
-      <c r="C55" t="s">
-        <v>489</v>
-      </c>
-      <c r="D55" t="s">
-        <v>544</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.19408854020106625</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.45567529821364827</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.36635311998942305</v>
-      </c>
-      <c r="H55" t="s">
-        <v>725</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>300</v>
-      </c>
-      <c r="C56" t="s">
-        <v>489</v>
-      </c>
-      <c r="D56" t="s">
-        <v>545</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.200081354451344</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.45567529821364827</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.36635311998942305</v>
-      </c>
-      <c r="H56" t="s">
-        <v>718</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>301</v>
-      </c>
-      <c r="C57" t="s">
-        <v>488</v>
-      </c>
-      <c r="D57" t="s">
-        <v>546</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.20092769055090004</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.45567529821364827</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.36635311998942305</v>
-      </c>
-      <c r="H57" t="s">
-        <v>701</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>302</v>
-      </c>
-      <c r="C58" t="s">
-        <v>488</v>
-      </c>
-      <c r="D58" t="s">
-        <v>547</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.2077119339951851</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H58" t="s">
-        <v>714</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>303</v>
-      </c>
-      <c r="C59" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59" t="s">
-        <v>548</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.20898941964704587</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H59" t="s">
-        <v>717</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" t="s">
-        <v>488</v>
-      </c>
-      <c r="D60" t="s">
-        <v>549</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.22409753402670324</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H60" t="s">
-        <v>707</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>305</v>
-      </c>
-      <c r="C61" t="s">
-        <v>489</v>
-      </c>
-      <c r="D61" t="s">
-        <v>550</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2265171362362013</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H61" t="s">
-        <v>724</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>306</v>
-      </c>
-      <c r="C62" t="s">
-        <v>489</v>
-      </c>
-      <c r="D62" t="s">
-        <v>517</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.2351388079001704</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H62" t="s">
-        <v>718</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>307</v>
-      </c>
-      <c r="C63" t="s">
-        <v>489</v>
-      </c>
-      <c r="D63" t="s">
-        <v>517</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.2351388079001704</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H63" t="s">
-        <v>724</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" t="s">
-        <v>489</v>
-      </c>
-      <c r="D64" t="s">
-        <v>517</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.2351388079001704</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H64" t="s">
-        <v>723</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" t="s">
-        <v>489</v>
-      </c>
-      <c r="D65" t="s">
-        <v>517</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.2351388079001704</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H65" t="s">
-        <v>723</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" t="s">
-        <v>489</v>
-      </c>
-      <c r="D66" t="s">
-        <v>551</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.24083460501393716</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H66" t="s">
-        <v>718</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" t="s">
-        <v>489</v>
-      </c>
-      <c r="D67" t="s">
-        <v>551</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.24083460501393716</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H67" t="s">
-        <v>724</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>312</v>
-      </c>
-      <c r="C68" t="s">
-        <v>489</v>
-      </c>
-      <c r="D68" t="s">
-        <v>551</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.24083460501393716</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.4565073856234331</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.36702210033545807</v>
-      </c>
-      <c r="H68" t="s">
-        <v>723</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>313</v>
-      </c>
-      <c r="C69" t="s">
-        <v>489</v>
-      </c>
-      <c r="D69" t="s">
-        <v>552</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.26870067510691265</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H69" t="s">
-        <v>725</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" t="s">
-        <v>489</v>
-      </c>
-      <c r="D70" t="s">
-        <v>552</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.26870067510691265</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H70" t="s">
-        <v>718</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" t="s">
-        <v>489</v>
-      </c>
-      <c r="D71" t="s">
-        <v>553</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.27415330990209785</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H71" t="s">
-        <v>724</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>316</v>
-      </c>
-      <c r="C72" t="s">
-        <v>489</v>
-      </c>
-      <c r="D72" t="s">
-        <v>554</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.2768647845148947</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H72" t="s">
-        <v>726</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" t="s">
-        <v>317</v>
-      </c>
-      <c r="C73" t="s">
-        <v>489</v>
-      </c>
-      <c r="D73" t="s">
-        <v>503</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.27956641047561137</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H73" t="s">
-        <v>718</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>318</v>
-      </c>
-      <c r="C74" t="s">
-        <v>489</v>
-      </c>
-      <c r="D74" t="s">
-        <v>521</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.28494025533750034</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H74" t="s">
-        <v>725</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>319</v>
-      </c>
-      <c r="C75" t="s">
-        <v>489</v>
-      </c>
-      <c r="D75" t="s">
-        <v>555</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.29292802272745566</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H75" t="s">
-        <v>723</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>320</v>
-      </c>
-      <c r="C76" t="s">
-        <v>489</v>
-      </c>
-      <c r="D76" t="s">
-        <v>555</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.29292802272745566</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H76" t="s">
-        <v>718</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>321</v>
-      </c>
-      <c r="C77" t="s">
-        <v>488</v>
-      </c>
-      <c r="D77" t="s">
-        <v>556</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.30419901384951853</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H77" t="s">
-        <v>704</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" t="s">
-        <v>488</v>
-      </c>
-      <c r="D78" t="s">
-        <v>557</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.30971759129747833</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H78" t="s">
-        <v>727</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>323</v>
-      </c>
-      <c r="C79" t="s">
-        <v>489</v>
-      </c>
-      <c r="D79" t="s">
-        <v>508</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.3112302591983488</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H79" t="s">
-        <v>724</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>324</v>
-      </c>
-      <c r="C80" t="s">
-        <v>489</v>
-      </c>
-      <c r="D80" t="s">
-        <v>558</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.31380697235109345</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H80" t="s">
-        <v>718</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" t="s">
-        <v>325</v>
-      </c>
-      <c r="C81" t="s">
-        <v>489</v>
-      </c>
-      <c r="D81" t="s">
-        <v>558</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.31380697235109345</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H81" t="s">
-        <v>718</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" t="s">
-        <v>489</v>
-      </c>
-      <c r="D82" t="s">
-        <v>559</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.31893231341722006</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H82" t="s">
-        <v>724</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83" t="s">
-        <v>489</v>
-      </c>
-      <c r="D83" t="s">
-        <v>559</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.31893231341722006</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H83" t="s">
-        <v>718</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>328</v>
-      </c>
-      <c r="C84" t="s">
-        <v>489</v>
-      </c>
-      <c r="D84" t="s">
-        <v>525</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.3214810074626442</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.4919046740693471</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.3954807574366073</v>
-      </c>
-      <c r="H84" t="s">
-        <v>724</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" t="s">
-        <v>329</v>
-      </c>
-      <c r="C85" t="s">
-        <v>489</v>
-      </c>
-      <c r="D85" t="s">
-        <v>560</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.3265506070584131</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.493359595465228</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.3966504828854299</v>
-      </c>
-      <c r="H85" t="s">
-        <v>718</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" t="s">
-        <v>489</v>
-      </c>
-      <c r="D86" t="s">
-        <v>561</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.33158337331929555</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.493359595465228</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.3966504828854299</v>
-      </c>
-      <c r="H86" t="s">
-        <v>718</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>331</v>
-      </c>
-      <c r="C87" t="s">
-        <v>489</v>
-      </c>
-      <c r="D87" t="s">
-        <v>562</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.3340860252756662</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.493359595465228</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.3966504828854299</v>
-      </c>
-      <c r="H87" t="s">
-        <v>718</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" t="s">
-        <v>489</v>
-      </c>
-      <c r="D88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.3415394441410017</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.49646298105575265</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.3991455380224452</v>
-      </c>
-      <c r="H88" t="s">
-        <v>718</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>333</v>
-      </c>
-      <c r="C89" t="s">
-        <v>489</v>
-      </c>
-      <c r="D89" t="s">
-        <v>564</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.34400584514099397</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.49646298105575265</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.3991455380224452</v>
-      </c>
-      <c r="H89" t="s">
-        <v>724</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" t="s">
-        <v>334</v>
-      </c>
-      <c r="C90" t="s">
-        <v>488</v>
-      </c>
-      <c r="D90" t="s">
-        <v>565</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.3521833607557229</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.49922562522550235</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.4013666444001137</v>
-      </c>
-      <c r="H90" t="s">
-        <v>707</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" t="s">
-        <v>335</v>
-      </c>
-      <c r="C91" t="s">
-        <v>489</v>
-      </c>
-      <c r="D91" t="s">
-        <v>566</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.3537819391361827</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.49922562522550235</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.4013666444001137</v>
-      </c>
-      <c r="H91" t="s">
-        <v>724</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>336</v>
-      </c>
-      <c r="C92" t="s">
-        <v>489</v>
-      </c>
-      <c r="D92" t="s">
-        <v>567</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.36341633101194726</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.5049672159020953</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.4059827595731724</v>
-      </c>
-      <c r="H92" t="s">
-        <v>718</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" t="s">
-        <v>489</v>
-      </c>
-      <c r="D93" t="s">
-        <v>568</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.36580302254325014</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.5049672159020953</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.4059827595731724</v>
-      </c>
-      <c r="H93" t="s">
-        <v>718</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" t="s">
-        <v>489</v>
-      </c>
-      <c r="D94" t="s">
-        <v>569</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.37526309055212215</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.5101706006460822</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.41016616877472006</v>
-      </c>
-      <c r="H94" t="s">
-        <v>718</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>339</v>
-      </c>
-      <c r="C95" t="s">
-        <v>489</v>
-      </c>
-      <c r="D95" t="s">
-        <v>570</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.37760658630497423</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.5101706006460822</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.41016616877472006</v>
-      </c>
-      <c r="H95" t="s">
-        <v>724</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" t="s">
-        <v>489</v>
-      </c>
-      <c r="D96" t="s">
-        <v>571</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.3937734138708443</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.5109723398856698</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.4108107498459177</v>
-      </c>
-      <c r="H96" t="s">
-        <v>724</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" t="s">
-        <v>489</v>
-      </c>
-      <c r="D97" t="s">
-        <v>572</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.396049371436873</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.5109723398856698</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.4108107498459177</v>
-      </c>
-      <c r="H97" t="s">
-        <v>718</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" t="s">
-        <v>488</v>
-      </c>
-      <c r="D98" t="s">
-        <v>573</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.39648603776936453</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.5109723398856698</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4108107498459177</v>
-      </c>
-      <c r="H98" t="s">
-        <v>701</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" t="s">
-        <v>343</v>
-      </c>
-      <c r="C99" t="s">
-        <v>489</v>
-      </c>
-      <c r="D99" t="s">
-        <v>530</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.3983170208557584</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.5109723398856698</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.4108107498459177</v>
-      </c>
-      <c r="H99" t="s">
-        <v>718</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" t="s">
-        <v>344</v>
-      </c>
-      <c r="C100" t="s">
-        <v>489</v>
-      </c>
-      <c r="D100" t="s">
-        <v>530</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.3983170208557584</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.5109723398856698</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.4108107498459177</v>
-      </c>
-      <c r="H100" t="s">
-        <v>724</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" t="s">
-        <v>489</v>
-      </c>
-      <c r="D101" t="s">
-        <v>531</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.4073051248321651</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.5149556686088401</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.41401326029886026</v>
-      </c>
-      <c r="H101" t="s">
-        <v>725</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" t="s">
-        <v>346</v>
-      </c>
-      <c r="C102" t="s">
-        <v>489</v>
-      </c>
-      <c r="D102" t="s">
-        <v>533</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.4095316734605736</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.5149556686088401</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.41401326029886026</v>
-      </c>
-      <c r="H102" t="s">
-        <v>728</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" t="s">
-        <v>489</v>
-      </c>
-      <c r="D103" t="s">
-        <v>574</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.42489140265594094</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.524129090734944</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.4213884940015711</v>
-      </c>
-      <c r="H103" t="s">
-        <v>718</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" t="s">
-        <v>488</v>
-      </c>
-      <c r="D104" t="s">
-        <v>575</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.4253144181123075</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.524129090734944</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.4213884940015711</v>
-      </c>
-      <c r="H104" t="s">
-        <v>729</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" t="s">
-        <v>349</v>
-      </c>
-      <c r="C105" t="s">
-        <v>489</v>
-      </c>
-      <c r="D105" t="s">
-        <v>576</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.4292080743026312</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.524129090734944</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.4213884940015711</v>
-      </c>
-      <c r="H105" t="s">
-        <v>723</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>350</v>
-      </c>
-      <c r="C106" t="s">
-        <v>489</v>
-      </c>
-      <c r="D106" t="s">
-        <v>577</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.43562407640538814</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.5268976924141361</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.4236143900884476</v>
-      </c>
-      <c r="H106" t="s">
-        <v>725</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" t="s">
-        <v>351</v>
-      </c>
-      <c r="C107" t="s">
-        <v>489</v>
-      </c>
-      <c r="D107" t="s">
-        <v>578</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.4419699406567128</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.5295300232396465</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.4257307273455923</v>
-      </c>
-      <c r="H107" t="s">
-        <v>724</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" t="s">
-        <v>352</v>
-      </c>
-      <c r="C108" t="s">
-        <v>489</v>
-      </c>
-      <c r="D108" t="s">
-        <v>579</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.4523925393030941</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.5369518924438593</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.43169775024495943</v>
-      </c>
-      <c r="H108" t="s">
-        <v>730</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" t="s">
-        <v>353</v>
-      </c>
-      <c r="C109" t="s">
-        <v>489</v>
-      </c>
-      <c r="D109" t="s">
-        <v>580</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.4686762240331165</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.5480170268536667</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.4405938798574859</v>
-      </c>
-      <c r="H109" t="s">
-        <v>731</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" t="s">
-        <v>354</v>
-      </c>
-      <c r="C110" t="s">
-        <v>489</v>
-      </c>
-      <c r="D110" t="s">
-        <v>581</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.47267300365706877</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.5480170268536667</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.4405938798574859</v>
-      </c>
-      <c r="H110" t="s">
-        <v>732</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" t="s">
-        <v>355</v>
-      </c>
-      <c r="C111" t="s">
-        <v>489</v>
-      </c>
-      <c r="D111" t="s">
-        <v>582</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.4746604169598688</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.5480170268536667</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.4405938798574859</v>
-      </c>
-      <c r="H111" t="s">
-        <v>724</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" t="s">
-        <v>356</v>
-      </c>
-      <c r="C112" t="s">
-        <v>489</v>
-      </c>
-      <c r="D112" t="s">
-        <v>539</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.4805790627876112</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.5493756434657727</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.44168617833551566</v>
-      </c>
-      <c r="H112" t="s">
-        <v>733</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" t="s">
-        <v>357</v>
-      </c>
-      <c r="C113" t="s">
-        <v>489</v>
-      </c>
-      <c r="D113" t="s">
-        <v>583</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.4844887564422563</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.5493756434657727</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.44168617833551566</v>
-      </c>
-      <c r="H113" t="s">
-        <v>732</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" t="s">
-        <v>358</v>
-      </c>
-      <c r="C114" t="s">
-        <v>489</v>
-      </c>
-      <c r="D114" t="s">
-        <v>584</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.4902997039131758</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.5510447999732152</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.4430281441972804</v>
-      </c>
-      <c r="H114" t="s">
-        <v>718</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" t="s">
-        <v>359</v>
-      </c>
-      <c r="C115" t="s">
-        <v>489</v>
-      </c>
-      <c r="D115" t="s">
-        <v>585</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.5147530173884826</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.5734529228801516</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.46104379212080154</v>
-      </c>
-      <c r="H115" t="s">
-        <v>718</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" t="s">
-        <v>360</v>
-      </c>
-      <c r="C116" t="s">
-        <v>489</v>
-      </c>
-      <c r="D116" t="s">
-        <v>586</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.531010024746873</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.5798105640751052</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.46615519863477173</v>
-      </c>
-      <c r="H116" t="s">
-        <v>725</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" t="s">
-        <v>361</v>
-      </c>
-      <c r="C117" t="s">
-        <v>489</v>
-      </c>
-      <c r="D117" t="s">
-        <v>587</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.5345501157053456</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.5798105640751052</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.46615519863477173</v>
-      </c>
-      <c r="H117" t="s">
-        <v>725</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" t="s">
-        <v>362</v>
-      </c>
-      <c r="C118" t="s">
-        <v>488</v>
-      </c>
-      <c r="D118" t="s">
-        <v>588</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.5378311089027181</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.5798105640751052</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.46615519863477173</v>
-      </c>
-      <c r="H118" t="s">
-        <v>729</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" t="s">
-        <v>363</v>
-      </c>
-      <c r="C119" t="s">
-        <v>489</v>
-      </c>
-      <c r="D119" t="s">
-        <v>589</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.5398115883195942</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.5798105640751052</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.46615519863477173</v>
-      </c>
-      <c r="H119" t="s">
-        <v>724</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" t="s">
-        <v>364</v>
-      </c>
-      <c r="C120" t="s">
-        <v>489</v>
-      </c>
-      <c r="D120" t="s">
-        <v>590</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.543287063975886</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.5798105640751052</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.46615519863477173</v>
-      </c>
-      <c r="H120" t="s">
-        <v>718</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" t="s">
-        <v>365</v>
-      </c>
-      <c r="C121" t="s">
-        <v>489</v>
-      </c>
-      <c r="D121" t="s">
-        <v>522</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.5569355411571524</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.5894234477246529</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.4738837499319629</v>
-      </c>
-      <c r="H121" t="s">
-        <v>718</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" t="s">
-        <v>366</v>
-      </c>
-      <c r="C122" t="s">
-        <v>489</v>
-      </c>
-      <c r="D122" t="s">
-        <v>591</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.590903334911856</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.620204326725667</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.49863091332274934</v>
-      </c>
-      <c r="H122" t="s">
-        <v>724</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" t="s">
-        <v>489</v>
-      </c>
-      <c r="D123" t="s">
-        <v>592</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.6121272742963666</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.6372144576691685</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.5123066920340601</v>
-      </c>
-      <c r="H123" t="s">
-        <v>718</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
-        <v>368</v>
-      </c>
-      <c r="C124" t="s">
-        <v>489</v>
-      </c>
-      <c r="D124" t="s">
-        <v>593</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.6237704668799287</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.6440556853150483</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.5178068916333168</v>
-      </c>
-      <c r="H124" t="s">
-        <v>734</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" t="s">
-        <v>369</v>
-      </c>
-      <c r="C125" t="s">
-        <v>489</v>
-      </c>
-      <c r="D125" t="s">
-        <v>594</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.6419696260632797</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.6536268881180816</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.5255019324281303</v>
-      </c>
-      <c r="H125" t="s">
-        <v>724</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" t="s">
-        <v>370</v>
-      </c>
-      <c r="C126" t="s">
-        <v>489</v>
-      </c>
-      <c r="D126" t="s">
-        <v>595</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.6433335512973244</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.6536268881180816</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.5255019324281303</v>
-      </c>
-      <c r="H126" t="s">
-        <v>733</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>371</v>
-      </c>
-      <c r="C127" t="s">
-        <v>489</v>
-      </c>
-      <c r="D127" t="s">
-        <v>596</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.6868167404845426</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.6922676669963246</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.5565682859398549</v>
-      </c>
-      <c r="H127" t="s">
-        <v>724</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128" t="s">
-        <v>489</v>
-      </c>
-      <c r="D128" t="s">
-        <v>597</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.757935343254164</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.757935343254164</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.6093636825168165</v>
-      </c>
-      <c r="H128" t="s">
-        <v>733</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" t="s">
-        <v>373</v>
-      </c>
-      <c r="C129" t="s">
-        <v>490</v>
-      </c>
-      <c r="D129" t="s">
-        <v>598</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.3300250770182993E-8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1.3605101109629507E-5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9.212917351616473E-6</v>
-      </c>
-      <c r="H129" t="s">
-        <v>735</v>
-      </c>
-      <c r="I129" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" t="s">
-        <v>374</v>
-      </c>
-      <c r="C130" t="s">
-        <v>491</v>
-      </c>
-      <c r="D130" t="s">
-        <v>599</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.7178157966703923E-8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1.3605101109629507E-5</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9.212917351616473E-6</v>
-      </c>
-      <c r="H130" t="s">
-        <v>736</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" t="s">
-        <v>375</v>
-      </c>
-      <c r="C131" t="s">
-        <v>492</v>
-      </c>
-      <c r="D131" t="s">
-        <v>600</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.689768206532232E-8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5.1161976130490186E-5</v>
-      </c>
-      <c r="G131" t="n">
-        <v>3.464517123668893E-5</v>
-      </c>
-      <c r="H131" t="s">
-        <v>737</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>139</v>
-      </c>
-      <c r="B132" t="s">
-        <v>376</v>
-      </c>
-      <c r="C132" t="s">
-        <v>493</v>
-      </c>
-      <c r="D132" t="s">
-        <v>601</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.4624652085121957E-7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5.791362225708295E-5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>3.921715914405072E-5</v>
-      </c>
-      <c r="H132" t="s">
-        <v>738</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>140</v>
-      </c>
-      <c r="B133" t="s">
-        <v>377</v>
-      </c>
-      <c r="C133" t="s">
-        <v>493</v>
-      </c>
-      <c r="D133" t="s">
-        <v>602</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.024028281392207E-6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.9822652622412764E-4</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1.3423234331631187E-4</v>
-      </c>
-      <c r="H133" t="s">
-        <v>739</v>
-      </c>
-      <c r="I133" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134" t="s">
-        <v>378</v>
-      </c>
-      <c r="C134" t="s">
-        <v>492</v>
-      </c>
-      <c r="D134" t="s">
-        <v>603</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.126287080818907E-6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.9822652622412764E-4</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1.3423234331631187E-4</v>
-      </c>
-      <c r="H134" t="s">
-        <v>737</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135" t="s">
-        <v>379</v>
-      </c>
-      <c r="C135" t="s">
-        <v>494</v>
-      </c>
-      <c r="D135" t="s">
-        <v>604</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.102123413801175E-6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2.2198423249740405E-4</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.5032026376585243E-4</v>
-      </c>
-      <c r="H135" t="s">
-        <v>740</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" t="s">
-        <v>380</v>
-      </c>
-      <c r="C136" t="s">
-        <v>491</v>
-      </c>
-      <c r="D136" t="s">
-        <v>605</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.0537961310610956E-6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2.4385846801916962E-4</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.6513276110548502E-4</v>
-      </c>
-      <c r="H136" t="s">
-        <v>741</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" t="s">
-        <v>381</v>
-      </c>
-      <c r="C137" t="s">
-        <v>491</v>
-      </c>
-      <c r="D137" t="s">
-        <v>606</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3.2329721138905062E-6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2.4385846801916962E-4</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.6513276110548502E-4</v>
-      </c>
-      <c r="H137" t="s">
-        <v>741</v>
-      </c>
-      <c r="I137" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" t="s">
-        <v>382</v>
-      </c>
-      <c r="C138" t="s">
-        <v>491</v>
-      </c>
-      <c r="D138" t="s">
-        <v>607</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.509988994601875E-6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3.1060098119345083E-4</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2.1032854853543758E-4</v>
-      </c>
-      <c r="H138" t="s">
-        <v>742</v>
-      </c>
-      <c r="I138" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" t="s">
-        <v>383</v>
-      </c>
-      <c r="C139" t="s">
-        <v>493</v>
-      </c>
-      <c r="D139" t="s">
-        <v>608</v>
-      </c>
-      <c r="E139" t="n">
-        <v>7.935724756306825E-6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5.028075205596004E-4</v>
-      </c>
-      <c r="G139" t="n">
-        <v>3.404843590179644E-4</v>
-      </c>
-      <c r="H139" t="s">
-        <v>743</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>147</v>
-      </c>
-      <c r="B140" t="s">
-        <v>384</v>
-      </c>
-      <c r="C140" t="s">
-        <v>495</v>
-      </c>
-      <c r="D140" t="s">
-        <v>609</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.282816916688233E-6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5.44591925779043E-4</v>
-      </c>
-      <c r="G140" t="n">
-        <v>3.6877935431209785E-4</v>
-      </c>
-      <c r="H140" t="s">
-        <v>744</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" t="s">
-        <v>385</v>
-      </c>
-      <c r="C141" t="s">
-        <v>496</v>
-      </c>
-      <c r="D141" t="s">
-        <v>610</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.3300995237445086E-5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.001190605692132678</v>
-      </c>
-      <c r="G141" t="n">
-        <v>8.062381713737365E-4</v>
-      </c>
-      <c r="H141" t="s">
-        <v>745</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142" t="s">
-        <v>386</v>
-      </c>
-      <c r="C142" t="s">
-        <v>496</v>
-      </c>
-      <c r="D142" t="s">
-        <v>611</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5.894616874032371E-5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.0025936314245742433</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0017563200569119843</v>
-      </c>
-      <c r="H142" t="s">
-        <v>746</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143" t="s">
-        <v>387</v>
-      </c>
-      <c r="C143" t="s">
-        <v>494</v>
-      </c>
-      <c r="D143" t="s">
-        <v>612</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.136568917928099E-5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.002627114909729219</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0017789939480423137</v>
-      </c>
-      <c r="H143" t="s">
-        <v>747</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" t="s">
-        <v>388</v>
-      </c>
-      <c r="C144" t="s">
-        <v>494</v>
-      </c>
-      <c r="D144" t="s">
-        <v>613</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.0854819425042273E-4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.004193666821772429</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0028398102680662588</v>
-      </c>
-      <c r="H144" t="s">
-        <v>748</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" t="s">
-        <v>389</v>
-      </c>
-      <c r="C145" t="s">
-        <v>494</v>
-      </c>
-      <c r="D145" t="s">
-        <v>614</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.4254232687794112E-4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.005250861529643227</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.003555707003393439</v>
-      </c>
-      <c r="H145" t="s">
-        <v>749</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" t="s">
-        <v>390</v>
-      </c>
-      <c r="C146" t="s">
-        <v>495</v>
-      </c>
-      <c r="D146" t="s">
-        <v>615</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.1997585192001594E-4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.0077290806742825275</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.005233873742087916</v>
-      </c>
-      <c r="H146" t="s">
-        <v>750</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" t="s">
-        <v>391</v>
-      </c>
-      <c r="C147" t="s">
-        <v>492</v>
-      </c>
-      <c r="D147" t="s">
-        <v>616</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.6774455526138097E-4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.00879675937851409</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0059568698874972485</v>
-      </c>
-      <c r="H147" t="s">
-        <v>751</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B148" t="s">
-        <v>392</v>
-      </c>
-      <c r="C148" t="s">
-        <v>496</v>
-      </c>
-      <c r="D148" t="s">
-        <v>609</v>
-      </c>
-      <c r="E148" t="n">
-        <v>3.138557009681541E-4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.009747988830069727</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.00660101051159028</v>
-      </c>
-      <c r="H148" t="s">
-        <v>752</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" t="s">
-        <v>393</v>
-      </c>
-      <c r="C149" t="s">
-        <v>496</v>
-      </c>
-      <c r="D149" t="s">
-        <v>617</v>
-      </c>
-      <c r="E149" t="n">
-        <v>3.5517914567235E-4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.010615165410283064</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.007188233355315287</v>
-      </c>
-      <c r="H149" t="s">
-        <v>753</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" t="s">
-        <v>394</v>
-      </c>
-      <c r="C150" t="s">
-        <v>496</v>
-      </c>
-      <c r="D150" t="s">
-        <v>618</v>
-      </c>
-      <c r="E150" t="n">
-        <v>4.234793463361505E-4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.01176826815081513</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.00796907578793236</v>
-      </c>
-      <c r="H150" t="s">
-        <v>754</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" t="s">
-        <v>395</v>
-      </c>
-      <c r="C151" t="s">
-        <v>496</v>
-      </c>
-      <c r="D151" t="s">
-        <v>619</v>
-      </c>
-      <c r="E151" t="n">
-        <v>4.479853067036623E-4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.011826812096976683</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.008008719781246173</v>
-      </c>
-      <c r="H151" t="s">
-        <v>755</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" t="s">
-        <v>396</v>
-      </c>
-      <c r="C152" t="s">
-        <v>494</v>
-      </c>
-      <c r="D152" t="s">
-        <v>599</v>
-      </c>
-      <c r="E152" t="n">
-        <v>4.7686097238441253E-4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.012105524776701009</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.008197454643446523</v>
-      </c>
-      <c r="H152" t="s">
-        <v>749</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>160</v>
-      </c>
-      <c r="B153" t="s">
-        <v>397</v>
-      </c>
-      <c r="C153" t="s">
-        <v>497</v>
-      </c>
-      <c r="D153" t="s">
-        <v>620</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.020319955648366E-4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.012105524776701009</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.008197454643446523</v>
-      </c>
-      <c r="H153" t="s">
-        <v>756</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>161</v>
-      </c>
-      <c r="B154" t="s">
-        <v>398</v>
-      </c>
-      <c r="C154" t="s">
-        <v>497</v>
-      </c>
-      <c r="D154" t="s">
-        <v>620</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5.020319955648366E-4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.012105524776701009</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.008197454643446523</v>
-      </c>
-      <c r="H154" t="s">
-        <v>757</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" t="s">
-        <v>399</v>
-      </c>
-      <c r="C155" t="s">
-        <v>496</v>
-      </c>
-      <c r="D155" t="s">
-        <v>621</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.142219290080457E-4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.012635422539594083</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.008556283604363616</v>
-      </c>
-      <c r="H155" t="s">
-        <v>758</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" t="s">
-        <v>400</v>
-      </c>
-      <c r="C156" t="s">
-        <v>493</v>
-      </c>
-      <c r="D156" t="s">
-        <v>622</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.711827949629939E-4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.012852442650043245</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.008703242331468677</v>
-      </c>
-      <c r="H156" t="s">
-        <v>759</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" t="s">
-        <v>401</v>
-      </c>
-      <c r="C157" t="s">
-        <v>497</v>
-      </c>
-      <c r="D157" t="s">
-        <v>623</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.896828442258054E-4</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.012852442650043245</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.008703242331468677</v>
-      </c>
-      <c r="H157" t="s">
-        <v>760</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" t="s">
-        <v>402</v>
-      </c>
-      <c r="C158" t="s">
-        <v>497</v>
-      </c>
-      <c r="D158" t="s">
-        <v>623</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.896828442258054E-4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.012852442650043245</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.008703242331468677</v>
-      </c>
-      <c r="H158" t="s">
-        <v>761</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" t="s">
-        <v>403</v>
-      </c>
-      <c r="C159" t="s">
-        <v>493</v>
-      </c>
-      <c r="D159" t="s">
-        <v>624</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.994511393429877E-4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.012882914008363867</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.008723876511511682</v>
-      </c>
-      <c r="H159" t="s">
-        <v>762</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" t="s">
-        <v>404</v>
-      </c>
-      <c r="C160" t="s">
-        <v>496</v>
-      </c>
-      <c r="D160" t="s">
-        <v>625</v>
-      </c>
-      <c r="E160" t="n">
-        <v>7.793192932786645E-4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.01387013214104949</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.009392387461276868</v>
-      </c>
-      <c r="H160" t="s">
-        <v>763</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" t="s">
-        <v>405</v>
-      </c>
-      <c r="C161" t="s">
-        <v>495</v>
-      </c>
-      <c r="D161" t="s">
-        <v>626</v>
-      </c>
-      <c r="E161" t="n">
-        <v>8.905397826940087E-4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.015109220585024103</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.010231456523218743</v>
-      </c>
-      <c r="H161" t="s">
-        <v>764</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>169</v>
-      </c>
-      <c r="B162" t="s">
-        <v>406</v>
-      </c>
-      <c r="C162" t="s">
-        <v>496</v>
-      </c>
-      <c r="D162" t="s">
-        <v>627</v>
-      </c>
-      <c r="E162" t="n">
-        <v>8.906686062809241E-4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.015109220585024103</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.010231456523218743</v>
-      </c>
-      <c r="H162" t="s">
-        <v>755</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" t="s">
-        <v>407</v>
-      </c>
-      <c r="C163" t="s">
-        <v>497</v>
-      </c>
-      <c r="D163" t="s">
-        <v>628</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.06171689127077E-4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.015109220585024103</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.010231456523218743</v>
-      </c>
-      <c r="H163" t="s">
-        <v>765</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" t="s">
-        <v>408</v>
-      </c>
-      <c r="C164" t="s">
-        <v>497</v>
-      </c>
-      <c r="D164" t="s">
-        <v>629</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.0010251301338099219</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.01640208214095875</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.011106938929849127</v>
-      </c>
-      <c r="H164" t="s">
-        <v>757</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>172</v>
-      </c>
-      <c r="B165" t="s">
-        <v>409</v>
-      </c>
-      <c r="C165" t="s">
-        <v>497</v>
-      </c>
-      <c r="D165" t="s">
-        <v>629</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.0010251301338099219</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.01640208214095875</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.011106938929849127</v>
-      </c>
-      <c r="H165" t="s">
-        <v>766</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>173</v>
-      </c>
-      <c r="B166" t="s">
-        <v>410</v>
-      </c>
-      <c r="C166" t="s">
-        <v>496</v>
-      </c>
-      <c r="D166" t="s">
-        <v>630</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.0011425154679567716</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H166" t="s">
-        <v>767</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167" t="s">
-        <v>411</v>
-      </c>
-      <c r="C167" t="s">
-        <v>497</v>
-      </c>
-      <c r="D167" t="s">
-        <v>631</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0011511781321733453</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H167" t="s">
-        <v>768</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>175</v>
-      </c>
-      <c r="B168" t="s">
-        <v>412</v>
-      </c>
-      <c r="C168" t="s">
-        <v>497</v>
-      </c>
-      <c r="D168" t="s">
-        <v>631</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.0011511781321733453</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H168" t="s">
-        <v>769</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>176</v>
-      </c>
-      <c r="B169" t="s">
-        <v>413</v>
-      </c>
-      <c r="C169" t="s">
-        <v>493</v>
-      </c>
-      <c r="D169" t="s">
-        <v>632</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.001171905156439199</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H169" t="s">
-        <v>762</v>
-      </c>
-      <c r="I169" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>177</v>
-      </c>
-      <c r="B170" t="s">
-        <v>414</v>
-      </c>
-      <c r="C170" t="s">
-        <v>496</v>
-      </c>
-      <c r="D170" t="s">
-        <v>604</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.0011884015086143934</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H170" t="s">
-        <v>755</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>178</v>
-      </c>
-      <c r="B171" t="s">
-        <v>415</v>
-      </c>
-      <c r="C171" t="s">
-        <v>496</v>
-      </c>
-      <c r="D171" t="s">
-        <v>604</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0011884015086143934</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H171" t="s">
-        <v>754</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>179</v>
-      </c>
-      <c r="B172" t="s">
-        <v>416</v>
-      </c>
-      <c r="C172" t="s">
-        <v>496</v>
-      </c>
-      <c r="D172" t="s">
-        <v>604</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.0011884015086143934</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.016658654775621232</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.01128068129742028</v>
-      </c>
-      <c r="H172" t="s">
-        <v>758</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>180</v>
-      </c>
-      <c r="B173" t="s">
-        <v>417</v>
-      </c>
-      <c r="C173" t="s">
-        <v>496</v>
-      </c>
-      <c r="D173" t="s">
-        <v>633</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.0013329857249299731</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.01764008289727327</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.011945271446252967</v>
-      </c>
-      <c r="H173" t="s">
-        <v>755</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" t="s">
-        <v>418</v>
-      </c>
-      <c r="C174" t="s">
-        <v>497</v>
-      </c>
-      <c r="D174" t="s">
-        <v>610</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.0014243843796977666</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.01764008289727327</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.011945271446252967</v>
-      </c>
-      <c r="H174" t="s">
-        <v>770</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>182</v>
-      </c>
-      <c r="B175" t="s">
-        <v>419</v>
-      </c>
-      <c r="C175" t="s">
-        <v>497</v>
-      </c>
-      <c r="D175" t="s">
-        <v>610</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.0014243843796977666</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.01764008289727327</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.011945271446252967</v>
-      </c>
-      <c r="H175" t="s">
-        <v>715</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>183</v>
-      </c>
-      <c r="B176" t="s">
-        <v>420</v>
-      </c>
-      <c r="C176" t="s">
-        <v>496</v>
-      </c>
-      <c r="D176" t="s">
-        <v>634</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.0014352537804035476</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.01764008289727327</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.011945271446252967</v>
-      </c>
-      <c r="H176" t="s">
-        <v>771</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>184</v>
-      </c>
-      <c r="B177" t="s">
-        <v>421</v>
-      </c>
-      <c r="C177" t="s">
-        <v>496</v>
-      </c>
-      <c r="D177" t="s">
-        <v>634</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.0014352537804035476</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.01764008289727327</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.011945271446252967</v>
-      </c>
-      <c r="H177" t="s">
-        <v>771</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>185</v>
-      </c>
-      <c r="B178" t="s">
-        <v>422</v>
-      </c>
-      <c r="C178" t="s">
-        <v>497</v>
-      </c>
-      <c r="D178" t="s">
-        <v>635</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.00172547522394135</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.019841410707824535</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.013435936676816322</v>
-      </c>
-      <c r="H178" t="s">
-        <v>772</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>186</v>
-      </c>
-      <c r="B179" t="s">
-        <v>423</v>
-      </c>
-      <c r="C179" t="s">
-        <v>494</v>
-      </c>
-      <c r="D179" t="s">
-        <v>636</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.001728607751060471</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.019841410707824535</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.013435936676816322</v>
-      </c>
-      <c r="H179" t="s">
-        <v>773</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" t="s">
-        <v>424</v>
-      </c>
-      <c r="C180" t="s">
-        <v>496</v>
-      </c>
-      <c r="D180" t="s">
-        <v>637</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.0018315270941983283</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.020055489364647936</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.013580903550356356</v>
-      </c>
-      <c r="H180" t="s">
-        <v>774</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" t="s">
-        <v>425</v>
-      </c>
-      <c r="C181" t="s">
-        <v>497</v>
-      </c>
-      <c r="D181" t="s">
-        <v>638</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.0020541380246540467</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.021266370137594838</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.014400871325232018</v>
-      </c>
-      <c r="H181" t="s">
-        <v>775</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>189</v>
-      </c>
-      <c r="B182" t="s">
-        <v>426</v>
-      </c>
-      <c r="C182" t="s">
-        <v>496</v>
-      </c>
-      <c r="D182" t="s">
-        <v>639</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.0020856843671203354</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.021311828576772995</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.014431654252878578</v>
-      </c>
-      <c r="H182" t="s">
-        <v>776</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" t="s">
-        <v>427</v>
-      </c>
-      <c r="C183" t="s">
-        <v>497</v>
-      </c>
-      <c r="D183" t="s">
-        <v>640</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.002228711906160848</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.021791849749128296</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.014756708462494505</v>
-      </c>
-      <c r="H183" t="s">
-        <v>756</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>191</v>
-      </c>
-      <c r="B184" t="s">
-        <v>428</v>
-      </c>
-      <c r="C184" t="s">
-        <v>497</v>
-      </c>
-      <c r="D184" t="s">
-        <v>640</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.002228711906160848</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.021791849749128296</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.014756708462494505</v>
-      </c>
-      <c r="H184" t="s">
-        <v>777</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" t="s">
-        <v>429</v>
-      </c>
-      <c r="C185" t="s">
-        <v>496</v>
-      </c>
-      <c r="D185" t="s">
-        <v>641</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0022899929876243935</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.02181451029859349</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.014772053425217146</v>
-      </c>
-      <c r="H185" t="s">
-        <v>778</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" t="s">
-        <v>430</v>
-      </c>
-      <c r="C186" t="s">
-        <v>494</v>
-      </c>
-      <c r="D186" t="s">
-        <v>642</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0023348490616976474</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.02181451029859349</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.014772053425217146</v>
-      </c>
-      <c r="H186" t="s">
-        <v>749</v>
-      </c>
-      <c r="I186" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>194</v>
-      </c>
-      <c r="B187" t="s">
-        <v>431</v>
-      </c>
-      <c r="C187" t="s">
-        <v>494</v>
-      </c>
-      <c r="D187" t="s">
-        <v>643</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.0023967392395193216</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.02181451029859349</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.014772053425217146</v>
-      </c>
-      <c r="H187" t="s">
-        <v>749</v>
-      </c>
-      <c r="I187" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>195</v>
-      </c>
-      <c r="B188" t="s">
-        <v>432</v>
-      </c>
-      <c r="C188" t="s">
-        <v>497</v>
-      </c>
-      <c r="D188" t="s">
-        <v>644</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.002410062690816831</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.02181451029859349</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.014772053425217146</v>
-      </c>
-      <c r="H188" t="s">
-        <v>696</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>196</v>
-      </c>
-      <c r="B189" t="s">
-        <v>433</v>
-      </c>
-      <c r="C189" t="s">
-        <v>497</v>
-      </c>
-      <c r="D189" t="s">
-        <v>611</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.0025981520125829467</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.022991468089002168</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.01556904969610128</v>
-      </c>
-      <c r="H189" t="s">
-        <v>696</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>197</v>
-      </c>
-      <c r="B190" t="s">
-        <v>434</v>
-      </c>
-      <c r="C190" t="s">
-        <v>496</v>
-      </c>
-      <c r="D190" t="s">
-        <v>645</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.002813801607012182</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.024624650527664625</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.01667498597002276</v>
-      </c>
-      <c r="H190" t="s">
-        <v>779</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>198</v>
-      </c>
-      <c r="B191" t="s">
-        <v>435</v>
-      </c>
-      <c r="C191" t="s">
-        <v>496</v>
-      </c>
-      <c r="D191" t="s">
-        <v>646</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.0028941378006741543</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.025188539979493735</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.017056832960595507</v>
-      </c>
-      <c r="H191" t="s">
-        <v>758</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>199</v>
-      </c>
-      <c r="B192" t="s">
-        <v>436</v>
-      </c>
-      <c r="C192" t="s">
-        <v>495</v>
-      </c>
-      <c r="D192" t="s">
-        <v>647</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.003003610330633279</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.025857167194147355</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.01750960484505327</v>
-      </c>
-      <c r="H192" t="s">
-        <v>780</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" t="s">
-        <v>437</v>
-      </c>
-      <c r="C193" t="s">
-        <v>495</v>
-      </c>
-      <c r="D193" t="s">
-        <v>648</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.0033735295345838985</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.02819134589232688</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.019090232233041664</v>
-      </c>
-      <c r="H193" t="s">
-        <v>781</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>201</v>
-      </c>
-      <c r="B194" t="s">
-        <v>438</v>
-      </c>
-      <c r="C194" t="s">
-        <v>495</v>
-      </c>
-      <c r="D194" t="s">
-        <v>649</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.003484665338387864</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.02859953313992941</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.019366642922373785</v>
-      </c>
-      <c r="H194" t="s">
-        <v>782</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>202</v>
-      </c>
-      <c r="B195" t="s">
-        <v>439</v>
-      </c>
-      <c r="C195" t="s">
-        <v>497</v>
-      </c>
-      <c r="D195" t="s">
-        <v>650</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.0036383448298034286</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.029449235306841192</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0199420326805364</v>
-      </c>
-      <c r="H195" t="s">
-        <v>696</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>203</v>
-      </c>
-      <c r="B196" t="s">
-        <v>440</v>
-      </c>
-      <c r="C196" t="s">
-        <v>495</v>
-      </c>
-      <c r="D196" t="s">
-        <v>651</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.0038329857589983565</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.0294869342203505</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.01996756111811348</v>
-      </c>
-      <c r="H196" t="s">
-        <v>783</v>
-      </c>
-      <c r="I196" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" t="s">
-        <v>441</v>
-      </c>
-      <c r="C197" t="s">
-        <v>497</v>
-      </c>
-      <c r="D197" t="s">
-        <v>652</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.0038660684438209716</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.0294869342203505</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.01996756111811348</v>
-      </c>
-      <c r="H197" t="s">
-        <v>784</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>205</v>
-      </c>
-      <c r="B198" t="s">
-        <v>442</v>
-      </c>
-      <c r="C198" t="s">
-        <v>497</v>
-      </c>
-      <c r="D198" t="s">
-        <v>652</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.0038660684438209716</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0294869342203505</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.01996756111811348</v>
-      </c>
-      <c r="H198" t="s">
-        <v>757</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" t="s">
-        <v>443</v>
-      </c>
-      <c r="C199" t="s">
-        <v>497</v>
-      </c>
-      <c r="D199" t="s">
-        <v>652</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.0038660684438209716</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.0294869342203505</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.01996756111811348</v>
-      </c>
-      <c r="H199" t="s">
-        <v>785</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>207</v>
-      </c>
-      <c r="B200" t="s">
-        <v>444</v>
-      </c>
-      <c r="C200" t="s">
-        <v>497</v>
-      </c>
-      <c r="D200" t="s">
-        <v>653</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.004340901570746005</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.03223456180264674</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.021828162198894892</v>
-      </c>
-      <c r="H200" t="s">
-        <v>786</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>208</v>
-      </c>
-      <c r="B201" t="s">
-        <v>445</v>
-      </c>
-      <c r="C201" t="s">
-        <v>494</v>
-      </c>
-      <c r="D201" t="s">
-        <v>654</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.004364396570153679</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.03223456180264674</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.021828162198894892</v>
-      </c>
-      <c r="H201" t="s">
-        <v>787</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>209</v>
-      </c>
-      <c r="B202" t="s">
-        <v>446</v>
-      </c>
-      <c r="C202" t="s">
-        <v>496</v>
-      </c>
-      <c r="D202" t="s">
-        <v>655</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.004375271961849147</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.03223456180264674</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.021828162198894892</v>
-      </c>
-      <c r="H202" t="s">
-        <v>788</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>210</v>
-      </c>
-      <c r="B203" t="s">
-        <v>447</v>
-      </c>
-      <c r="C203" t="s">
-        <v>497</v>
-      </c>
-      <c r="D203" t="s">
-        <v>656</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0.004587936986018943</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.03296335503349283</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.022321676487991226</v>
-      </c>
-      <c r="H203" t="s">
-        <v>760</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>211</v>
-      </c>
-      <c r="B204" t="s">
-        <v>448</v>
-      </c>
-      <c r="C204" t="s">
-        <v>496</v>
-      </c>
-      <c r="D204" t="s">
-        <v>657</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.004695375864452006</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.033055446085742124</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.022384037454393425</v>
-      </c>
-      <c r="H204" t="s">
-        <v>778</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>212</v>
-      </c>
-      <c r="B205" t="s">
-        <v>449</v>
-      </c>
-      <c r="C205" t="s">
-        <v>497</v>
-      </c>
-      <c r="D205" t="s">
-        <v>658</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.004841335824576092</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.03348766788702415</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.022676723535936742</v>
-      </c>
-      <c r="H205" t="s">
-        <v>768</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>213</v>
-      </c>
-      <c r="B206" t="s">
-        <v>450</v>
-      </c>
-      <c r="C206" t="s">
-        <v>494</v>
-      </c>
-      <c r="D206" t="s">
-        <v>659</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.004970145473039334</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.03408099752941257</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.02307850643439089</v>
-      </c>
-      <c r="H206" t="s">
-        <v>789</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>214</v>
-      </c>
-      <c r="B207" t="s">
-        <v>451</v>
-      </c>
-      <c r="C207" t="s">
-        <v>497</v>
-      </c>
-      <c r="D207" t="s">
-        <v>660</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.005639346945540146</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.03660953099071964</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.024790744337814533</v>
-      </c>
-      <c r="H207" t="s">
-        <v>790</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>215</v>
-      </c>
-      <c r="B208" t="s">
-        <v>452</v>
-      </c>
-      <c r="C208" t="s">
-        <v>497</v>
-      </c>
-      <c r="D208" t="s">
-        <v>661</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0.006493317826735861</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.04049376156515592</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.027421014775979455</v>
-      </c>
-      <c r="H208" t="s">
-        <v>791</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>216</v>
-      </c>
-      <c r="B209" t="s">
-        <v>453</v>
-      </c>
-      <c r="C209" t="s">
-        <v>496</v>
-      </c>
-      <c r="D209" t="s">
-        <v>662</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.0066400203661870685</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.04124624415702085</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.027930570704415368</v>
-      </c>
-      <c r="H209" t="s">
-        <v>792</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>217</v>
-      </c>
-      <c r="B210" t="s">
-        <v>454</v>
-      </c>
-      <c r="C210" t="s">
-        <v>494</v>
-      </c>
-      <c r="D210" t="s">
-        <v>663</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.007008268291518947</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.04288432773907246</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.02903982586796574</v>
-      </c>
-      <c r="H210" t="s">
-        <v>793</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>218</v>
-      </c>
-      <c r="B211" t="s">
-        <v>455</v>
-      </c>
-      <c r="C211" t="s">
-        <v>496</v>
-      </c>
-      <c r="D211" t="s">
-        <v>664</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0.0070503234017105934</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.04288432773907246</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.02903982586796574</v>
-      </c>
-      <c r="H211" t="s">
-        <v>794</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>219</v>
-      </c>
-      <c r="B212" t="s">
-        <v>456</v>
-      </c>
-      <c r="C212" t="s">
-        <v>497</v>
-      </c>
-      <c r="D212" t="s">
-        <v>665</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0.007093241078053652</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.04288432773907246</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.02903982586796574</v>
-      </c>
-      <c r="H212" t="s">
-        <v>757</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>220</v>
-      </c>
-      <c r="B213" t="s">
-        <v>457</v>
-      </c>
-      <c r="C213" t="s">
-        <v>494</v>
-      </c>
-      <c r="D213" t="s">
-        <v>666</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.007212401468256465</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.04333177987168016</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.029342825418156627</v>
-      </c>
-      <c r="H213" t="s">
-        <v>795</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>221</v>
-      </c>
-      <c r="B214" t="s">
-        <v>458</v>
-      </c>
-      <c r="C214" t="s">
-        <v>496</v>
-      </c>
-      <c r="D214" t="s">
-        <v>667</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.007620375910409149</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.04537847910559433</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.030728781372009985</v>
-      </c>
-      <c r="H214" t="s">
-        <v>796</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>222</v>
-      </c>
-      <c r="B215" t="s">
-        <v>459</v>
-      </c>
-      <c r="C215" t="s">
-        <v>496</v>
-      </c>
-      <c r="D215" t="s">
-        <v>668</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0.00949077531000986</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.053309886847714955</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.03609966420642049</v>
-      </c>
-      <c r="H215" t="s">
-        <v>797</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>223</v>
-      </c>
-      <c r="B216" t="s">
-        <v>460</v>
-      </c>
-      <c r="C216" t="s">
-        <v>494</v>
-      </c>
-      <c r="D216" t="s">
-        <v>669</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0.009571149621083063</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.05357138162471933</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.03627673968340577</v>
-      </c>
-      <c r="H216" t="s">
-        <v>798</v>
-      </c>
-      <c r="I216" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>224</v>
-      </c>
-      <c r="B217" t="s">
-        <v>461</v>
-      </c>
-      <c r="C217" t="s">
-        <v>497</v>
-      </c>
-      <c r="D217" t="s">
-        <v>670</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0.010449581023366206</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.057472695628514134</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.03891857844594358</v>
-      </c>
-      <c r="H217" t="s">
-        <v>784</v>
-      </c>
-      <c r="I217" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>225</v>
-      </c>
-      <c r="B218" t="s">
-        <v>462</v>
-      </c>
-      <c r="C218" t="s">
-        <v>495</v>
-      </c>
-      <c r="D218" t="s">
-        <v>671</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.010682352796982288</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.05821511287862294</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.03942131846312917</v>
-      </c>
-      <c r="H218" t="s">
-        <v>783</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>226</v>
-      </c>
-      <c r="B219" t="s">
-        <v>463</v>
-      </c>
-      <c r="C219" t="s">
-        <v>496</v>
-      </c>
-      <c r="D219" t="s">
-        <v>672</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0.010694821873534896</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.05821511287862294</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.03942131846312917</v>
-      </c>
-      <c r="H219" t="s">
-        <v>799</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>227</v>
-      </c>
-      <c r="B220" t="s">
-        <v>464</v>
-      </c>
-      <c r="C220" t="s">
-        <v>497</v>
-      </c>
-      <c r="D220" t="s">
-        <v>673</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.011190251817031501</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.06008596229890813</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.04068819483159715</v>
-      </c>
-      <c r="H220" t="s">
-        <v>800</v>
-      </c>
-      <c r="I220" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>228</v>
-      </c>
-      <c r="B221" t="s">
-        <v>465</v>
-      </c>
-      <c r="C221" t="s">
-        <v>496</v>
-      </c>
-      <c r="D221" t="s">
-        <v>613</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.01160663616229226</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.06107944080090013</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.04136094509311353</v>
-      </c>
-      <c r="H221" t="s">
-        <v>801</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>229</v>
-      </c>
-      <c r="B222" t="s">
-        <v>466</v>
-      </c>
-      <c r="C222" t="s">
-        <v>497</v>
-      </c>
-      <c r="D222" t="s">
-        <v>621</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.011953420258270894</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.0624891672907627</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.04231556450643753</v>
-      </c>
-      <c r="H222" t="s">
-        <v>802</v>
-      </c>
-      <c r="I222" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>230</v>
-      </c>
-      <c r="B223" t="s">
-        <v>467</v>
-      </c>
-      <c r="C223" t="s">
-        <v>495</v>
-      </c>
-      <c r="D223" t="s">
-        <v>674</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.012295542909066533</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.06385619661626685</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.04324127083464641</v>
-      </c>
-      <c r="H223" t="s">
-        <v>803</v>
-      </c>
-      <c r="I223" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224" t="s">
-        <v>468</v>
-      </c>
-      <c r="C224" t="s">
-        <v>497</v>
-      </c>
-      <c r="D224" t="s">
-        <v>675</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.012343357160938854</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.06389502530368348</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.04326756431715408</v>
-      </c>
-      <c r="H224" t="s">
-        <v>804</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" t="s">
-        <v>469</v>
-      </c>
-      <c r="C225" t="s">
-        <v>495</v>
-      </c>
-      <c r="D225" t="s">
-        <v>676</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.012821622772946847</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.06615456179917852</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.04479764651339906</v>
-      </c>
-      <c r="H225" t="s">
-        <v>805</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>233</v>
-      </c>
-      <c r="B226" t="s">
-        <v>470</v>
-      </c>
-      <c r="C226" t="s">
-        <v>497</v>
-      </c>
-      <c r="D226" t="s">
-        <v>677</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.013139769681174987</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.0664964702076076</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.045029175399755546</v>
-      </c>
-      <c r="H226" t="s">
-        <v>806</v>
-      </c>
-      <c r="I226" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" t="s">
-        <v>471</v>
-      </c>
-      <c r="C227" t="s">
-        <v>497</v>
-      </c>
-      <c r="D227" t="s">
-        <v>625</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.013958013241640354</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.06996674992012127</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.04737913222262332</v>
-      </c>
-      <c r="H227" t="s">
-        <v>807</v>
-      </c>
-      <c r="I227" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228" t="s">
-        <v>472</v>
-      </c>
-      <c r="C228" t="s">
-        <v>495</v>
-      </c>
-      <c r="D228" t="s">
-        <v>678</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.015667745370192897</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.07731373416319486</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.052354263099611616</v>
-      </c>
-      <c r="H228" t="s">
-        <v>808</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" t="s">
-        <v>473</v>
-      </c>
-      <c r="C229" t="s">
-        <v>497</v>
-      </c>
-      <c r="D229" t="s">
-        <v>679</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.01699001121222199</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.08237147136321768</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.05577919279579932</v>
-      </c>
-      <c r="H229" t="s">
-        <v>809</v>
-      </c>
-      <c r="I229" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" t="s">
-        <v>474</v>
-      </c>
-      <c r="C230" t="s">
-        <v>496</v>
-      </c>
-      <c r="D230" t="s">
-        <v>680</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.017290357650935992</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.08299371672449275</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.05620055644753996</v>
-      </c>
-      <c r="H230" t="s">
-        <v>810</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>238</v>
-      </c>
-      <c r="B231" t="s">
-        <v>475</v>
-      </c>
-      <c r="C231" t="s">
-        <v>497</v>
-      </c>
-      <c r="D231" t="s">
-        <v>681</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.01744407537148957</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.08347859633969631</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.05652890063141318</v>
-      </c>
-      <c r="H231" t="s">
-        <v>811</v>
-      </c>
-      <c r="I231" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" t="s">
-        <v>476</v>
-      </c>
-      <c r="C232" t="s">
-        <v>497</v>
-      </c>
-      <c r="D232" t="s">
-        <v>604</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.018367576262383795</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.08737009249133913</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.05916409107434515</v>
-      </c>
-      <c r="H232" t="s">
-        <v>696</v>
-      </c>
-      <c r="I232" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>240</v>
-      </c>
-      <c r="B233" t="s">
-        <v>477</v>
-      </c>
-      <c r="C233" t="s">
-        <v>497</v>
-      </c>
-      <c r="D233" t="s">
-        <v>682</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.018836950003811036</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.08933451738334336</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.060494333608205005</v>
-      </c>
-      <c r="H233" t="s">
-        <v>812</v>
-      </c>
-      <c r="I233" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" t="s">
-        <v>478</v>
-      </c>
-      <c r="C234" t="s">
-        <v>497</v>
-      </c>
-      <c r="D234" t="s">
-        <v>633</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.019790787594819847</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.09220178691233717</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.06243595219542236</v>
-      </c>
-      <c r="H234" t="s">
-        <v>813</v>
-      </c>
-      <c r="I234" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>242</v>
-      </c>
-      <c r="B235" t="s">
-        <v>479</v>
-      </c>
-      <c r="C235" t="s">
-        <v>497</v>
-      </c>
-      <c r="D235" t="s">
-        <v>633</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.019790787594819847</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.09220178691233717</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.06243595219542236</v>
-      </c>
-      <c r="H235" t="s">
-        <v>814</v>
-      </c>
-      <c r="I235" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>243</v>
-      </c>
-      <c r="B236" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" t="s">
-        <v>497</v>
-      </c>
-      <c r="D236" t="s">
-        <v>683</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.020275189245546655</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.09418152423737802</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.06377656379444989</v>
-      </c>
-      <c r="H236" t="s">
-        <v>811</v>
-      </c>
-      <c r="I236" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>244</v>
-      </c>
-      <c r="B237" t="s">
-        <v>481</v>
-      </c>
-      <c r="C237" t="s">
-        <v>496</v>
-      </c>
-      <c r="D237" t="s">
-        <v>684</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.020491160588853398</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.0949064279904789</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.06426744425990032</v>
-      </c>
-      <c r="H237" t="s">
-        <v>815</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>245</v>
-      </c>
-      <c r="B238" t="s">
-        <v>482</v>
-      </c>
-      <c r="C238" t="s">
-        <v>497</v>
-      </c>
-      <c r="D238" t="s">
-        <v>634</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.020764538218667257</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.09557028271833924</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.06471698437665319</v>
-      </c>
-      <c r="H238" t="s">
-        <v>816</v>
-      </c>
-      <c r="I238" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>